--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Sdc4</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Sdc4</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H2">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I2">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J2">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N2">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P2">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q2">
-        <v>0.1403570008333333</v>
+        <v>9.273857246527555</v>
       </c>
       <c r="R2">
-        <v>1.2632130075</v>
+        <v>83.46471521874801</v>
       </c>
       <c r="S2">
-        <v>0.0002312768239539016</v>
+        <v>0.02082098594014451</v>
       </c>
       <c r="T2">
-        <v>0.0002312768239539017</v>
+        <v>0.02082098594014452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H3">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I3">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J3">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.801266</v>
       </c>
       <c r="O3">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P3">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q3">
-        <v>0.668515243919111</v>
+        <v>75.32881569703355</v>
       </c>
       <c r="R3">
-        <v>6.016637195272</v>
+        <v>677.959341273302</v>
       </c>
       <c r="S3">
-        <v>0.001101563024718473</v>
+        <v>0.1691227469673357</v>
       </c>
       <c r="T3">
-        <v>0.001101563024718473</v>
+        <v>0.1691227469673358</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H4">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I4">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J4">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N4">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O4">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P4">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q4">
-        <v>2.019325197244001</v>
+        <v>110.0833924863587</v>
       </c>
       <c r="R4">
-        <v>18.173926775196</v>
+        <v>990.7505323772281</v>
       </c>
       <c r="S4">
-        <v>0.003327394539466144</v>
+        <v>0.247151180600726</v>
       </c>
       <c r="T4">
-        <v>0.003327394539466144</v>
+        <v>0.2471511806007261</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H5">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I5">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J5">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N5">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P5">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q5">
-        <v>1.056906751082222</v>
+        <v>92.82732019562779</v>
       </c>
       <c r="R5">
-        <v>9.51216075974</v>
+        <v>835.4458817606501</v>
       </c>
       <c r="S5">
-        <v>0.001741545025573685</v>
+        <v>0.2084091093140503</v>
       </c>
       <c r="T5">
-        <v>0.001741545025573685</v>
+        <v>0.2084091093140503</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.06729733333333333</v>
+        <v>7.583115666666667</v>
       </c>
       <c r="H6">
-        <v>0.201892</v>
+        <v>22.749347</v>
       </c>
       <c r="I6">
-        <v>0.008774653069109758</v>
+        <v>0.9996196502830235</v>
       </c>
       <c r="J6">
-        <v>0.00877465306910976</v>
+        <v>0.9996196502830236</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N6">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P6">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q6">
-        <v>1.440046710838667</v>
+        <v>157.7263337709593</v>
       </c>
       <c r="R6">
-        <v>12.960420397548</v>
+        <v>1419.537003938634</v>
       </c>
       <c r="S6">
-        <v>0.002372873655397556</v>
+        <v>0.3541156274607668</v>
       </c>
       <c r="T6">
-        <v>0.002372873655397556</v>
+        <v>0.3541156274607669</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H7">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J7">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>2.085625</v>
+        <v>1.222961333333333</v>
       </c>
       <c r="N7">
-        <v>6.256875</v>
+        <v>3.668884</v>
       </c>
       <c r="O7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="P7">
-        <v>0.02635737528678909</v>
+        <v>0.02082890820948692</v>
       </c>
       <c r="Q7">
-        <v>15.81553561229167</v>
+        <v>0.003528651100444445</v>
       </c>
       <c r="R7">
-        <v>142.339820510625</v>
+        <v>0.03175785990400001</v>
       </c>
       <c r="S7">
-        <v>0.02606045173253631</v>
+        <v>7.922269342407537E-06</v>
       </c>
       <c r="T7">
-        <v>0.02606045173253631</v>
+        <v>7.922269342407542E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H8">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J8">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>29.801266</v>
       </c>
       <c r="O8">
-        <v>0.1255392111850449</v>
+        <v>0.1691870972318839</v>
       </c>
       <c r="P8">
-        <v>0.1255392111850449</v>
+        <v>0.169187097231884</v>
       </c>
       <c r="Q8">
-        <v>75.32881569703355</v>
+        <v>0.02866219538844444</v>
       </c>
       <c r="R8">
-        <v>677.959341273302</v>
+        <v>0.257959758496</v>
       </c>
       <c r="S8">
-        <v>0.1241249751931236</v>
+        <v>6.435026454822013E-05</v>
       </c>
       <c r="T8">
-        <v>0.1241249751931236</v>
+        <v>6.435026454822017E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H9">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J9">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.006021</v>
+        <v>14.516908</v>
       </c>
       <c r="N9">
-        <v>90.01806300000001</v>
+        <v>43.550724</v>
       </c>
       <c r="O9">
-        <v>0.3792052532743301</v>
+        <v>0.247245220250272</v>
       </c>
       <c r="P9">
-        <v>0.3792052532743301</v>
+        <v>0.2472452202502721</v>
       </c>
       <c r="Q9">
-        <v>227.5391279394291</v>
+        <v>0.04188611854933334</v>
       </c>
       <c r="R9">
-        <v>2047.852151454861</v>
+        <v>0.3769750669440001</v>
       </c>
       <c r="S9">
-        <v>0.3749333950043613</v>
+        <v>9.403964954597971E-05</v>
       </c>
       <c r="T9">
-        <v>0.3749333950043612</v>
+        <v>9.403964954597973E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H10">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I10">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J10">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.70503166666666</v>
+        <v>12.24131666666667</v>
       </c>
       <c r="N10">
-        <v>47.115095</v>
+        <v>36.72395</v>
       </c>
       <c r="O10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="P10">
-        <v>0.1984745165258568</v>
+        <v>0.2084884078209579</v>
       </c>
       <c r="Q10">
-        <v>119.0930716769961</v>
+        <v>0.03532027902222223</v>
       </c>
       <c r="R10">
-        <v>1071.837645092965</v>
+        <v>0.3178825112000001</v>
       </c>
       <c r="S10">
-        <v>0.1962386429521706</v>
+        <v>7.929850690757935E-05</v>
       </c>
       <c r="T10">
-        <v>0.1962386429521706</v>
+        <v>7.929850690757936E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>7.583115666666667</v>
+        <v>0.002885333333333333</v>
       </c>
       <c r="H11">
-        <v>22.749347</v>
+        <v>0.008656</v>
       </c>
       <c r="I11">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="J11">
-        <v>0.9887347070403626</v>
+        <v>0.0003803497169764852</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,338 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.398273</v>
+        <v>20.799674</v>
       </c>
       <c r="N11">
-        <v>64.194819</v>
+        <v>62.399022</v>
       </c>
       <c r="O11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873991</v>
       </c>
       <c r="P11">
-        <v>0.2704236437279791</v>
+        <v>0.3542503664873992</v>
       </c>
       <c r="Q11">
-        <v>162.2655792259103</v>
+        <v>0.06001399271466667</v>
       </c>
       <c r="R11">
-        <v>1460.390213033193</v>
+        <v>0.5401259344320001</v>
       </c>
       <c r="S11">
-        <v>0.2673772421581708</v>
+        <v>0.0001347390266322984</v>
       </c>
       <c r="T11">
-        <v>0.2673772421581708</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.019102</v>
-      </c>
-      <c r="H12">
-        <v>0.057306</v>
-      </c>
-      <c r="I12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J12">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>2.085625</v>
-      </c>
-      <c r="N12">
-        <v>6.256875</v>
-      </c>
-      <c r="O12">
-        <v>0.02635737528678909</v>
-      </c>
-      <c r="P12">
-        <v>0.02635737528678909</v>
-      </c>
-      <c r="Q12">
-        <v>0.03983960874999999</v>
-      </c>
-      <c r="R12">
-        <v>0.35855647875</v>
-      </c>
-      <c r="S12">
-        <v>6.564673029888399E-05</v>
-      </c>
-      <c r="T12">
-        <v>6.564673029888399E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.019102</v>
-      </c>
-      <c r="H13">
-        <v>0.057306</v>
-      </c>
-      <c r="I13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J13">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.933755333333332</v>
-      </c>
-      <c r="N13">
-        <v>29.801266</v>
-      </c>
-      <c r="O13">
-        <v>0.1255392111850449</v>
-      </c>
-      <c r="P13">
-        <v>0.1255392111850449</v>
-      </c>
-      <c r="Q13">
-        <v>0.1897545943773333</v>
-      </c>
-      <c r="R13">
-        <v>1.707791349396</v>
-      </c>
-      <c r="S13">
-        <v>0.0003126729672028451</v>
-      </c>
-      <c r="T13">
-        <v>0.0003126729672028451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.019102</v>
-      </c>
-      <c r="H14">
-        <v>0.057306</v>
-      </c>
-      <c r="I14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J14">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>30.006021</v>
-      </c>
-      <c r="N14">
-        <v>90.01806300000001</v>
-      </c>
-      <c r="O14">
-        <v>0.3792052532743301</v>
-      </c>
-      <c r="P14">
-        <v>0.3792052532743301</v>
-      </c>
-      <c r="Q14">
-        <v>0.573175013142</v>
-      </c>
-      <c r="R14">
-        <v>5.158575118278001</v>
-      </c>
-      <c r="S14">
-        <v>0.0009444637305026788</v>
-      </c>
-      <c r="T14">
-        <v>0.0009444637305026787</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.019102</v>
-      </c>
-      <c r="H15">
-        <v>0.057306</v>
-      </c>
-      <c r="I15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J15">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>15.70503166666666</v>
-      </c>
-      <c r="N15">
-        <v>47.115095</v>
-      </c>
-      <c r="O15">
-        <v>0.1984745165258568</v>
-      </c>
-      <c r="P15">
-        <v>0.1984745165258568</v>
-      </c>
-      <c r="Q15">
-        <v>0.2999975148966666</v>
-      </c>
-      <c r="R15">
-        <v>2.69997763407</v>
-      </c>
-      <c r="S15">
-        <v>0.0004943285481124838</v>
-      </c>
-      <c r="T15">
-        <v>0.0004943285481124838</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.019102</v>
-      </c>
-      <c r="H16">
-        <v>0.057306</v>
-      </c>
-      <c r="I16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="J16">
-        <v>0.002490639890527628</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>21.398273</v>
-      </c>
-      <c r="N16">
-        <v>64.194819</v>
-      </c>
-      <c r="O16">
-        <v>0.2704236437279791</v>
-      </c>
-      <c r="P16">
-        <v>0.2704236437279791</v>
-      </c>
-      <c r="Q16">
-        <v>0.4087498108459999</v>
-      </c>
-      <c r="R16">
-        <v>3.678748297613999</v>
-      </c>
-      <c r="S16">
-        <v>0.0006735279144107361</v>
-      </c>
-      <c r="T16">
-        <v>0.0006735279144107359</v>
+        <v>0.0001347390266322985</v>
       </c>
     </row>
   </sheetData>
